--- a/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
@@ -3595,7 +3595,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3626,7 +3626,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3657,7 +3657,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3688,7 +3688,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4096,7 +4096,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DHILLON'S STATION CEDARBURG LLC</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION CEDARBURG LLC</t>
+          <t>W62 N174 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>W62 N174 WASHINGTON AVE</t>
+          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4189,7 +4189,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
+          <t>Please check in with bigger Grafton store after finishing</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4220,7 +4220,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Please check in with bigger Grafton store after finishing</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>

--- a/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
@@ -532,32 +532,80 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -575,16 +623,40 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1103,7 +1175,13 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry
+Trainer</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1188,7 +1266,8 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>w/ DJ (Slinger meet)</t>
+          <t>w/ DJ (Slinger meet)
+Trainer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1555,10 +1634,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Nataun</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1st Scan, work w/ Nate</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1604,10 +1687,15 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Nataun</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1st Financial,
+work w/ Stephanie</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1616,12 +1704,13 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd Financial,
+work  w/ Carlie</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1644,14 +1733,10 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1683,7 +1768,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1695,7 +1780,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1723,12 +1808,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd Scan, work w/ Nate</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1763,7 +1848,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1775,7 +1860,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1796,9 +1881,22 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1819,9 +1917,21 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1830,7 +1940,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1856,9 +1966,21 @@
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1879,9 +2001,22 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2nd Financial,
+work  w/ Carlie</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -1890,7 +2025,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1906,21 +2041,18 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd Scan,
+work w/ Angela</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
@@ -1953,7 +2085,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1969,19 +2101,20 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -2009,9 +2142,21 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -2020,20 +2165,19 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2072,19 +2216,20 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Michael</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2118,11 +2263,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>5:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
@@ -2132,19 +2273,19 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Michael</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1125 E JOHNSON ST</t>
+          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2179,7 +2320,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2191,7 +2332,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2203,7 +2344,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
+          <t>1125 E JOHNSON ST</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2238,7 +2379,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2250,7 +2391,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2260,7 +2401,11 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2281,7 +2426,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>FESTIVAL #2696, HARTFORD - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2293,7 +2438,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2302,21 +2447,9 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2336,7 +2469,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1275 BELL AVE</t>
+          <t>FESTIVAL #2696, HARTFORD - LIFO</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2348,7 +2481,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2359,17 +2492,17 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -2395,7 +2528,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PUKTG8ru54xUWw7d9</t>
+          <t>1275 BELL AVE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2407,30 +2540,28 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2454,7 +2585,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PUKTG8ru54xUWw7d9</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2464,29 +2599,30 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Altima</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2509,22 +2645,9 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
@@ -2544,15 +2667,20 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2575,15 +2703,20 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
@@ -2603,12 +2736,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2634,20 +2767,15 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2668,12 +2796,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2695,15 +2823,20 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
@@ -2723,12 +2856,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2762,15 +2895,20 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Nataun</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2nd Financial,
+work  w/ Anisha</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2778,12 +2916,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2817,12 +2955,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2833,20 +2971,15 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2877,20 +3010,15 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -2902,17 +3030,18 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2945,36 +3074,32 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3012,17 +3137,18 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Anisha</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3036,18 +3162,17 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Financial work w/ Annette</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3068,12 +3193,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3092,7 +3217,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -3100,7 +3225,12 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd Financial work w/ Annette</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3119,17 +3249,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Anisha</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3143,15 +3273,19 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3170,12 +3304,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3194,11 +3328,19 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3217,12 +3359,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3260,12 +3402,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3301,9 +3443,21 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3364,11 +3518,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3397,7 +3547,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3438,7 +3588,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
@@ -4096,7 +4250,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION CEDARBURG LLC</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4127,7 +4281,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>W62 N174 WASHINGTON AVE</t>
+          <t>DHILLON'S STATION CEDARBURG LLC</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4158,7 +4312,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
+          <t>W62 N174 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4189,7 +4343,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Please check in with bigger Grafton store after finishing</t>
+          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4220,7 +4374,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>Please check in with bigger Grafton store after finishing</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>

--- a/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
@@ -4250,7 +4250,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DHILLON'S STATION CEDARBURG LLC</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION CEDARBURG LLC</t>
+          <t>W62 N174 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>W62 N174 WASHINGTON AVE</t>
+          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4343,7 +4343,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
+          <t>Please check in with bigger Grafton store after finishing</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4374,7 +4374,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Please check in with bigger Grafton store after finishing</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>

--- a/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
@@ -1175,13 +1175,7 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry
-Trainer</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1266,8 +1260,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>w/ DJ (Slinger meet)
-Trainer</t>
+          <t>w/ DJ (Slinger meet), Trainer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1404,7 +1397,8 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1546,7 +1540,11 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1639,7 +1637,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1st Scan, work w/ Nate</t>
+          <t>2nd Scan, work w/ Nate</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1687,15 +1685,10 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nataun</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1st Financial,
-work w/ Stephanie</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1704,13 +1697,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3rd Financial,
-work  w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1768,7 +1760,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1780,7 +1772,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1808,12 +1800,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3rd Scan, work w/ Nate</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1848,7 +1841,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1860,12 +1853,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 3rd Festival, work w/ Carlie</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1888,13 +1881,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1917,21 +1909,9 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1940,7 +1920,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1966,21 +1946,9 @@
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -2001,22 +1969,9 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2nd Financial,
-work  w/ Carlie</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -2025,7 +1980,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2041,13 +1996,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2nd Scan,
-work w/ Angela</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2062,10 +2016,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Nataun</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>3rd Scan, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -2085,7 +2043,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2101,13 +2059,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2126,7 +2083,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2142,21 +2099,9 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -2165,12 +2110,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2189,7 +2135,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2216,13 +2162,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store, work w/ Michael</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2241,15 +2186,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2263,7 +2203,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>5:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
@@ -2273,12 +2217,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2297,12 +2241,13 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Ashley</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2320,7 +2265,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2332,7 +2277,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2356,12 +2301,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Ashley</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2379,7 +2324,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2391,7 +2336,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2408,9 +2353,21 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2426,7 +2383,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2696, HARTFORD - LIFO</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2438,7 +2395,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2469,7 +2426,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>FESTIVAL #2696, HARTFORD - LIFO</t>
+          <t>1275 BELL AVE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2507,11 +2464,7 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2528,7 +2481,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1275 BELL AVE</t>
+          <t>https://goo.gl/maps/PUKTG8ru54xUWw7d9</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2568,7 +2521,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>MODAS / WINTAKES</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2585,11 +2538,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PUKTG8ru54xUWw7d9</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2629,7 +2578,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>SCHIERL #61, WAUSAU-COUNTY RD NN</t>
+          <t>MODAS / WINTAKES</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2645,9 +2594,22 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
@@ -2685,7 +2647,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>151101 COUNTY ROAD NN</t>
+          <t>SCHIERL #61, WAUSAU-COUNTY RD NN</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2703,20 +2665,15 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
@@ -2749,7 +2706,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ByRvuryTZ2BMoD2y7</t>
+          <t>151101 COUNTY ROAD NN</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2767,15 +2724,20 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2807,7 +2769,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ByRvuryTZ2BMoD2y7</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2823,18 +2789,18 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>1st Financial,
+work  w/ Anisha</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2866,21 +2832,9 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2895,20 +2849,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Nataun</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2nd Financial,
-work  w/ Anisha</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2928,17 +2877,17 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2955,12 +2904,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2983,12 +2932,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -3010,12 +2959,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3047,12 +2996,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -3074,15 +3023,20 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -3110,17 +3064,17 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>meet Michelle 6:30am @ Point Target</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -3137,12 +3091,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3176,9 +3130,21 @@
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>meet Michelle 6:30am @ Point Target</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3193,17 +3159,17 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Anisha</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -3249,17 +3215,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Anisha</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3304,17 +3270,18 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial work w/ Ashley</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3359,7 +3326,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3402,7 +3369,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3445,7 +3412,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3718,7 +3685,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -4219,7 +4186,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>

--- a/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,14 +1632,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Nataun</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>2nd Scan, work w/ Nate</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1697,7 +1693,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1725,10 +1721,15 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1800,13 +1801,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1844,7 +1844,11 @@
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1869,26 +1873,19 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>After Aurora,
+If needed</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1900,7 +1897,11 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1936,13 +1937,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>After Aurora,
-If needed</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2006,7 +2006,11 @@
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
@@ -2033,7 +2037,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2059,19 +2067,20 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -2096,7 +2105,11 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -2110,20 +2123,19 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store, work w/ Michael</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2148,7 +2160,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2162,19 +2178,19 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2199,7 +2215,11 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CONDON OIL #115, OSHKOSH</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2217,7 +2237,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2229,7 +2249,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
+          <t>1125 E JOHNSON ST</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2246,8 +2266,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2259,7 +2278,11 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4733 HWY 45 S</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2277,7 +2300,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2289,7 +2312,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1125 E JOHNSON ST</t>
+          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2301,12 +2324,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Ashley</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2318,7 +2341,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ogWshZHQaJA2</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2336,7 +2363,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2346,28 +2373,12 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2377,7 +2388,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2395,7 +2410,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2404,9 +2419,21 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2420,7 +2447,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2438,7 +2469,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2449,22 +2480,26 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2475,7 +2510,11 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CONDON OIL #125, OSHKOSH</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2493,35 +2532,37 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS / WINTAKES</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2534,7 +2575,11 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>415 W MURDOCK</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2548,37 +2593,36 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
           <t>Driver,
-Altima</t>
+Gold Camry</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>MODAS / WINTAKES</t>
+          <t>SCHIERL #61, WAUSAU-COUNTY RD NN</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2591,7 +2635,11 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/MN9h4JXUjeC2</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -2618,7 +2666,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2629,25 +2677,20 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>SCHIERL #61, WAUSAU-COUNTY RD NN</t>
+          <t>151101 COUNTY ROAD NN</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2682,23 +2725,24 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2706,7 +2750,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>151101 COUNTY ROAD NN</t>
+          <t>https://goo.gl/maps/ByRvuryTZ2BMoD2y7</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2718,9 +2762,21 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2746,34 +2802,29 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ByRvuryTZ2BMoD2y7</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2783,9 +2834,21 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2804,37 +2867,37 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>26)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2857,7 +2920,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2865,29 +2932,29 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2915,29 +2982,38 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2972,36 +3048,35 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -3041,19 +3116,19 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1263 MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3064,17 +3139,17 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Michelle 6:30am @ Point Target</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -3109,42 +3184,31 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1263 MENOMONEE FALLS</t>
+          <t>N84 W16889 MENOMONEE AVE, STE 140</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial work w/ Annette</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>meet Michelle 6:30am @ Point Target</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3176,25 +3240,24 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>N84 W16889 MENOMONEE AVE, STE 140</t>
+          <t>https://goo.gl/maps/E7VKTpyTzpr</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Financial work w/ Annette</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3232,19 +3295,19 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/E7VKTpyTzpr</t>
+          <t>APPROX 8:30 AM START</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3288,26 +3351,14 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>APPROX 8:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3343,7 +3394,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA VISION #1168, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3386,7 +3437,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>AURORA VISION #1168, MENOMONEE FALLS</t>
+          <t>N84 W16889 MENOMONEE AVE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3429,7 +3480,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>N84 W16889 MENOMONEE AVE</t>
+          <t>https://goo.gl/maps/E7VKTpyTzpr</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3458,11 +3509,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/E7VKTpyTzpr</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3488,9 +3535,21 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3521,19 +3580,15 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3562,16 +3617,8 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3625,7 +3672,11 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3654,7 +3705,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3685,7 +3736,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3807,11 +3858,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>*SALE INVENTORY</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3837,9 +3884,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3866,17 +3925,17 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -3905,17 +3964,17 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima available</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -3944,17 +4003,17 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Gold Camry available</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -3983,12 +4042,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4022,12 +4081,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4059,21 +4118,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4126,7 +4173,11 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4155,7 +4206,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4186,7 +4237,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4339,11 +4390,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>*SALE INVENTORY</t>
-        </is>
-      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
@@ -4369,9 +4416,21 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -4398,19 +4457,15 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
@@ -4437,12 +4492,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -4470,16 +4525,8 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -4533,7 +4580,11 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
@@ -4562,7 +4613,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -4577,37 +4628,6 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
